--- a/lab/02/Python/data.xlsx
+++ b/lab/02/Python/data.xlsx
@@ -1,34 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cerbe\Documents\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF021A8-9ED4-498B-864B-5E608C38B762}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>Datetime</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>чай</t>
+  </si>
+  <si>
+    <t>772B6CE69464D30522D95229584A473439E7488CC37772827249AC80A3BE751A</t>
+  </si>
+  <si>
+    <t>мюсли</t>
+  </si>
+  <si>
+    <t>кофе</t>
+  </si>
+  <si>
+    <t>сыр</t>
+  </si>
+  <si>
+    <t>сысол жизни</t>
+  </si>
+  <si>
+    <t>молоко</t>
+  </si>
+  <si>
+    <t>творог</t>
+  </si>
+  <si>
+    <t>кефир</t>
+  </si>
+  <si>
+    <t>бананы</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +104,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,50 +411,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="86.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>User ID</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Datetime</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="F1" t="n">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.89171296296296287</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.89171296296296287</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.89172453703703702</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.89173611111111117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.89173611111111117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.89173611111111117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.89174768518518521</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.89174768518518521</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.89487268518518526</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.89487268518518526</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.89487268518518526</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.89508101851851851</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.89515046296296286</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.91459490740740745</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.91460648148148149</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.91469907407407414</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.91819444444444442</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="C25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>